--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -918,7 +918,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +929,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -965,19 +971,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1345,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="H3" s="4">
         <v>116</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="4">
         <v>51</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="H4" s="4">
         <v>47</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="4">
         <v>9</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1494,13 +1500,13 @@
       <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1531,7 @@
       <c r="H7" s="4">
         <v>29</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="4">
         <v>56</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1550,17 +1556,17 @@
         <v>40</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1587,7 @@
       <c r="H9" s="6">
         <v>43345</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="4">
         <v>233</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="H11" s="4">
         <v>33</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="4">
         <v>12</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1684,7 @@
       <c r="H12" s="4">
         <v>9</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="4">
         <v>4</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +1748,7 @@
       <c r="H14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="4">
         <v>59</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1781,7 @@
       <c r="H15" s="4">
         <v>9</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="4">
         <v>2</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1843,13 +1849,13 @@
       <c r="H17" s="4">
         <v>39</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1866,17 +1872,17 @@
         <v>76</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1969,7 @@
       <c r="H21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="4">
         <v>20</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="H23" s="4">
         <v>7</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="4">
         <v>310</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2097,7 @@
       <c r="H25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="4">
         <v>22</v>
       </c>
@@ -2124,7 +2130,7 @@
       <c r="H26" s="4">
         <v>75</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="4">
         <v>22</v>
       </c>
@@ -2149,12 +2155,12 @@
         <v>103</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="4">
         <v>13</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="1" t="s">
         <v>104</v>
       </c>
@@ -2184,8 +2190,8 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="1" t="s">
         <v>107</v>
       </c>
@@ -2215,7 +2221,7 @@
       <c r="H29" s="4">
         <v>134</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="4">
         <v>55</v>
       </c>
@@ -2248,8 +2254,8 @@
       <c r="H30" s="4">
         <v>18</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="1" t="s">
         <v>113</v>
       </c>
@@ -2279,7 +2285,7 @@
       <c r="H31" s="4">
         <v>26</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="4">
         <v>38</v>
       </c>
@@ -2347,8 +2353,8 @@
       <c r="H33" s="4">
         <v>286</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="1" t="s">
         <v>124</v>
       </c>
@@ -2409,8 +2415,8 @@
       <c r="H35" s="4">
         <v>31</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="1" t="s">
         <v>130</v>
       </c>
@@ -2436,7 +2442,7 @@
       <c r="H36" s="4">
         <v>41</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="4">
         <v>142</v>
       </c>
@@ -2469,7 +2475,7 @@
       <c r="H37" s="4">
         <v>10</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="4">
         <v>119</v>
       </c>
@@ -2568,7 +2574,7 @@
       <c r="H40" s="4">
         <v>2</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="4">
         <v>14</v>
       </c>
@@ -2601,8 +2607,8 @@
       <c r="H41" s="4">
         <v>83</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="1" t="s">
         <v>148</v>
       </c>
@@ -2635,7 +2641,7 @@
       <c r="I42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="1" t="s">
         <v>151</v>
       </c>
@@ -2665,7 +2671,7 @@
       <c r="H43" s="4">
         <v>144</v>
       </c>
-      <c r="I43" s="3"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="4">
         <v>30</v>
       </c>
@@ -2698,8 +2704,8 @@
       <c r="H44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="1" t="s">
         <v>157</v>
       </c>
@@ -2729,8 +2735,8 @@
       <c r="H45" s="4">
         <v>68</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="1" t="s">
         <v>161</v>
       </c>
@@ -2760,7 +2766,7 @@
       <c r="H46" s="4">
         <v>10</v>
       </c>
-      <c r="I46" s="3"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="4">
         <v>132</v>
       </c>
@@ -2793,7 +2799,7 @@
       <c r="H47" s="4">
         <v>9</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="4">
         <v>67</v>
       </c>
@@ -2826,7 +2832,7 @@
       <c r="H48" s="4">
         <v>15</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="4">
         <v>4</v>
       </c>
@@ -2855,7 +2861,7 @@
       <c r="H49" s="4">
         <v>4</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="4">
         <v>73</v>
       </c>
@@ -2888,8 +2894,8 @@
       <c r="H50" s="4">
         <v>5</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="1" t="s">
         <v>174</v>
       </c>
@@ -2919,7 +2925,7 @@
       <c r="H51" s="4">
         <v>108</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="4">
         <v>52</v>
       </c>
@@ -2952,8 +2958,8 @@
       <c r="H52" s="4">
         <v>18</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="1" t="s">
         <v>180</v>
       </c>
@@ -2983,8 +2989,8 @@
       <c r="H53" s="4">
         <v>18</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="1" t="s">
         <v>113</v>
       </c>
@@ -3006,12 +3012,12 @@
         <v>103</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="4">
         <v>13</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="1" t="s">
         <v>104</v>
       </c>
@@ -3041,8 +3047,8 @@
       <c r="H55" s="4">
         <v>31</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="1" t="s">
         <v>130</v>
       </c>
@@ -3072,7 +3078,7 @@
       <c r="H56" s="4">
         <v>16</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="4">
         <v>42</v>
       </c>
@@ -3105,8 +3111,8 @@
       <c r="H57" s="4">
         <v>34</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="1" t="s">
         <v>187</v>
       </c>
@@ -3136,8 +3142,8 @@
       <c r="H58" s="4">
         <v>153</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="1" t="s">
         <v>191</v>
       </c>
@@ -3167,7 +3173,7 @@
       <c r="H59" s="4">
         <v>10</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="4">
         <v>250</v>
       </c>
@@ -3200,8 +3206,8 @@
       <c r="H60" s="4">
         <v>41</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="1" t="s">
         <v>197</v>
       </c>
@@ -3266,7 +3272,7 @@
       <c r="H62" s="4">
         <v>47</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="4">
         <v>142</v>
       </c>
@@ -3299,7 +3305,7 @@
       <c r="H63" s="4">
         <v>75</v>
       </c>
-      <c r="I63" s="3"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="4">
         <v>179</v>
       </c>
@@ -3332,8 +3338,8 @@
       <c r="H64" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="1" t="s">
         <v>212</v>
       </c>
@@ -3363,8 +3369,8 @@
       <c r="H65" s="4">
         <v>83</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="1" t="s">
         <v>148</v>
       </c>
@@ -3394,7 +3400,7 @@
       <c r="H66" s="4">
         <v>43</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="4">
         <v>13</v>
       </c>
@@ -3427,8 +3433,8 @@
       <c r="H67" s="4">
         <v>31</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="1" t="s">
         <v>130</v>
       </c>
@@ -3458,7 +3464,7 @@
       <c r="H68" s="4">
         <v>84</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="4">
         <v>37</v>
       </c>
@@ -3483,12 +3489,12 @@
         <v>220</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="4">
         <v>475</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="1" t="s">
         <v>221</v>
       </c>
@@ -3510,12 +3516,12 @@
         <v>224</v>
       </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="1" t="s">
         <v>226</v>
       </c>
@@ -3545,7 +3551,7 @@
       <c r="H71" s="4">
         <v>15</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="4">
         <v>11</v>
       </c>
@@ -3578,7 +3584,7 @@
       <c r="H72" s="4">
         <v>54</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="4">
         <v>10</v>
       </c>
@@ -3611,7 +3617,7 @@
       <c r="H73" s="4">
         <v>109</v>
       </c>
-      <c r="I73" s="3"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="4">
         <v>40</v>
       </c>
@@ -3644,7 +3650,7 @@
       <c r="H74" s="4">
         <v>75</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="4">
         <v>179</v>
       </c>
@@ -3677,7 +3683,7 @@
       <c r="H75" s="4">
         <v>10</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="4">
         <v>250</v>
       </c>
@@ -3710,7 +3716,7 @@
       <c r="H76" s="4">
         <v>5</v>
       </c>
-      <c r="I76" s="3"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="4">
         <v>20</v>
       </c>
@@ -3743,7 +3749,7 @@
       <c r="H77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I77" s="3"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="4">
         <v>17</v>
       </c>
@@ -3768,12 +3774,12 @@
         <v>246</v>
       </c>
       <c r="F78" s="1"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="4">
         <v>223</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="1" t="s">
         <v>247</v>
       </c>
@@ -3803,8 +3809,8 @@
       <c r="H79" s="4">
         <v>7</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="1" t="s">
         <v>249</v>
       </c>
@@ -3830,7 +3836,7 @@
       <c r="H80" s="4">
         <v>31</v>
       </c>
-      <c r="I80" s="3"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="4">
         <v>58</v>
       </c>
@@ -3863,7 +3869,7 @@
       <c r="H81" s="4">
         <v>2</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="4">
         <v>48</v>
       </c>
@@ -3896,7 +3902,7 @@
       <c r="H82" s="4">
         <v>3</v>
       </c>
-      <c r="I82" s="3"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="4">
         <v>10</v>
       </c>
@@ -3929,8 +3935,8 @@
       <c r="H83" s="4">
         <v>61</v>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="1" t="s">
         <v>260</v>
       </c>
@@ -3960,8 +3966,8 @@
       <c r="H84" s="4">
         <v>5</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="1" t="s">
         <v>263</v>
       </c>
@@ -3991,8 +3997,8 @@
       <c r="H85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="1" t="s">
         <v>267</v>
       </c>
@@ -4022,8 +4028,8 @@
       <c r="H86" s="4">
         <v>230</v>
       </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="1" t="s">
         <v>270</v>
       </c>
@@ -4053,8 +4059,8 @@
       <c r="H87" s="4">
         <v>31</v>
       </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="1" t="s">
         <v>130</v>
       </c>
@@ -4084,7 +4090,7 @@
       <c r="H88" s="4">
         <v>75</v>
       </c>
-      <c r="I88" s="3"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="4">
         <v>179</v>
       </c>
@@ -4117,8 +4123,8 @@
       <c r="H89" s="4">
         <v>50</v>
       </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="1" t="s">
         <v>272</v>
       </c>
@@ -4148,7 +4154,7 @@
       <c r="H90" s="4">
         <v>3</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="4">
         <v>32</v>
       </c>
@@ -4212,7 +4218,7 @@
       <c r="H92" s="4">
         <v>3</v>
       </c>
-      <c r="I92" s="3"/>
+      <c r="I92" s="2"/>
       <c r="J92" s="4">
         <v>164</v>
       </c>
@@ -4237,12 +4243,12 @@
         <v>246</v>
       </c>
       <c r="F93" s="1"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="4">
         <v>223</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="1" t="s">
         <v>247</v>
       </c>
@@ -4272,7 +4278,7 @@
       <c r="H94" s="4">
         <v>48</v>
       </c>
-      <c r="I94" s="3"/>
+      <c r="I94" s="2"/>
       <c r="J94" s="4">
         <v>32</v>
       </c>
@@ -4301,7 +4307,7 @@
       <c r="H95" s="4">
         <v>5</v>
       </c>
-      <c r="I95" s="3"/>
+      <c r="I95" s="2"/>
       <c r="J95" s="4">
         <v>18</v>
       </c>
@@ -4334,7 +4340,7 @@
       <c r="H96" s="4">
         <v>119</v>
       </c>
-      <c r="I96" s="3"/>
+      <c r="I96" s="2"/>
       <c r="J96" s="4">
         <v>141</v>
       </c>
@@ -4367,7 +4373,7 @@
       <c r="H97" s="4">
         <v>3</v>
       </c>
-      <c r="I97" s="3"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="4">
         <v>14</v>
       </c>
@@ -4400,7 +4406,7 @@
       <c r="H98" s="4">
         <v>90</v>
       </c>
-      <c r="I98" s="3"/>
+      <c r="I98" s="2"/>
       <c r="J98" s="4">
         <v>2</v>
       </c>
@@ -4429,7 +4435,7 @@
       <c r="H99" s="4">
         <v>50</v>
       </c>
-      <c r="I99" s="3"/>
+      <c r="I99" s="2"/>
       <c r="J99" s="4">
         <v>51</v>
       </c>
@@ -4462,7 +4468,7 @@
       <c r="H100" s="6">
         <v>43106</v>
       </c>
-      <c r="I100" s="3"/>
+      <c r="I100" s="2"/>
       <c r="J100" s="4">
         <v>35</v>
       </c>
@@ -4495,8 +4501,8 @@
       <c r="H101" s="4">
         <v>31</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="1" t="s">
         <v>298</v>
       </c>
